--- a/CleanupExample.xlsx
+++ b/CleanupExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF5D92E-2E97-40BC-98D4-A6D281636C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE3B47-09F3-4F53-9036-E780D0C537A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="3465" windowWidth="21600" windowHeight="11235" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,9 +42,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -55,16 +56,40 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>FROM:</t>
   </si>
@@ -220,13 +245,31 @@
   </si>
   <si>
     <t>ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>BatteryMonitor  LowBatteryThresholdBootup         1.0703125    1.13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BatteryMonitor  LowBatteryThresholdBootup         1.0703125    1.13 </t>
+  </si>
+  <si>
+    <t>BatteryMonitor LowBatteryThresholdBootup 1.0703125 1.13</t>
+  </si>
+  <si>
+    <t>What did I learn here? Beware of Unicode characters for things like em spaces.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -345,6 +388,12 @@
       <family val="3"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -459,7 +508,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -476,6 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Calculation" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -846,8 +896,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4330065" y="531495"/>
-          <a:ext cx="2106930" cy="535305"/>
+          <a:off x="4331970" y="523875"/>
+          <a:ext cx="2112645" cy="527685"/>
           <a:chOff x="10536555" y="342900"/>
           <a:chExt cx="2122170" cy="542925"/>
         </a:xfrm>
@@ -1154,7 +1204,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1241,6 +1291,72 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,10 +1575,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:BA136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1592,17 +1708,22 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>35</v>
       </c>
@@ -1610,525 +1731,1214 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="G24" t="str" cm="1">
-        <f t="array" ref="G24:G85">MID(H22,_xlfn.SEQUENCE(LEN(H22)),1)</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="G25" t="str">
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="str" cm="1">
+        <f t="array" ref="C27:BA27">_xlfn.TEXTSPLIT(C22,{0,"A","B","C","D","E","F","G","H","I","J","K","L","M","N","O","P","Q","R","S","T","U","V","W","X","Y","Z","a","b","c","d","e","f","g","h","i","j","k","l","m","n","o","p","q","r","s","t","u","v","w","x","y","z","0","1","2","3","4","5","6","7","8","9"})</f>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v>  </v>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <v/>
+      </c>
+      <c r="AE27" t="str">
+        <v/>
+      </c>
+      <c r="AF27" t="str">
+        <v/>
+      </c>
+      <c r="AG27" t="str">
+        <v/>
+      </c>
+      <c r="AH27" t="str">
+        <v/>
+      </c>
+      <c r="AI27" t="str">
+        <v/>
+      </c>
+      <c r="AJ27" t="str">
+        <v/>
+      </c>
+      <c r="AK27" t="str">
+        <v/>
+      </c>
+      <c r="AL27" t="str">
+        <v/>
+      </c>
+      <c r="AM27" t="str">
+        <v/>
+      </c>
+      <c r="AN27" t="str">
+        <v/>
+      </c>
+      <c r="AO27" t="str">
+        <v/>
+      </c>
+      <c r="AP27" t="str">
+        <v>            </v>
+      </c>
+      <c r="AQ27" t="str">
+        <v>.</v>
+      </c>
+      <c r="AR27" t="str">
+        <v/>
+      </c>
+      <c r="AS27" t="str">
+        <v/>
+      </c>
+      <c r="AT27" t="str">
+        <v/>
+      </c>
+      <c r="AU27" t="str">
+        <v/>
+      </c>
+      <c r="AV27" t="str">
+        <v/>
+      </c>
+      <c r="AW27" t="str">
+        <v/>
+      </c>
+      <c r="AX27" t="str">
+        <v xml:space="preserve">        </v>
+      </c>
+      <c r="AY27" t="str">
+        <v>.</v>
+      </c>
+      <c r="AZ27" t="str">
+        <v/>
+      </c>
+      <c r="BA27" t="str">
+        <v> </v>
+      </c>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="C29" t="str" cm="1">
+        <f t="array" ref="C29">TRIM(_xlfn.REDUCE(C22,CHAR(E39:E40),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,SUBSTITUTE(_xlpm.a,_xlpm.v,""))))</f>
+        <v>BatteryMonitor  LowBatteryThresholdBootup         1.0703125    1.13 </v>
+      </c>
+    </row>
+    <row r="30" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f>SUBSTITUTE(C30,CHAR(63)," ")</f>
+        <v>BatteryMonitor  LowBatteryThresholdBootup         1.0703125    1.13 </v>
+      </c>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f>TRIM(C31)</f>
+        <v>BatteryMonitor  LowBatteryThresholdBootup         1.0703125    1.13 </v>
+      </c>
+      <c r="H32" cm="1">
+        <f t="array" ref="H32:H99">CODE(MID(C32,_xlfn.SEQUENCE(LEN(C32)),1))</f>
+        <v>66</v>
+      </c>
+      <c r="I32" t="str">
+        <f>CHAR(H32)</f>
         <v>B</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G26" t="str">
-        <v>C</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" t="str" cm="1">
-        <f t="array" ref="C27:C88">SUBSTITUTE(C19:C25,_xlfn.ANCHORARRAY(G24),"")</f>
-        <v>                              New        OLD</v>
-      </c>
-      <c r="G27" t="str">
-        <v>D</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" t="str">
-        <v>LowatteryShutdownTimeout                   4 hours      30 minutes</v>
-      </c>
-      <c r="G28" t="str">
-        <v>E</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <v>F</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" t="str">
-        <v>BatteryMonitor  LowBatteryThresholdBootup            1.0703125        1.13 </v>
-      </c>
-      <c r="G30" t="str">
-        <v>G</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" t="str">
-        <v>BatteryMonitor  LowBatteryThreshold             1.05859375    1.16</v>
-      </c>
-      <c r="G31" t="str">
-        <v>H</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" t="str">
-        <v>BatteryMonitor  VeryLowBatteryShutdownThreshold      1.03125       1.10 </v>
-      </c>
-      <c r="G32" t="str">
-        <v>I</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" t="str">
-        <v>BatteryMonitor  VeryLowBatteryShutdownTimeout         10        10</v>
-      </c>
-      <c r="G33" t="str">
-        <v>J</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G34" t="str">
-        <v>K</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G35" t="str">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33">
+        <v>97</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" ref="I33:I96" si="0">CHAR(H33)</f>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>LEN(C32)-LEN(SUBSTITUTE(C32," ",""))</f>
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>116</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>_xlfn.UNICODE(" ")</f>
+        <v>8195</v>
+      </c>
+      <c r="H35">
+        <v>116</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f>SUBSTITUTE(C32,_xlfn.UNICODE(8195),CHAR(32))</f>
+        <v>BatteryMonitor  LowBatteryThresholdBootup         1.0703125    1.13 </v>
+      </c>
+      <c r="H36">
+        <v>101</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37">
+        <v>114</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f>CODE(MID(G33,1,1))</f>
+        <v>63</v>
+      </c>
+      <c r="H38">
+        <v>121</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="e" cm="1" vm="1">
+        <f t="array" ref="C39">CODE(MID(C33,_xlfn.SEQUENCE(LEN(C33)),1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="e" cm="1" vm="2">
+        <f t="array" ref="D39">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(C39))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39">
+        <v>63</v>
+      </c>
+      <c r="H39">
+        <v>77</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>160</v>
+      </c>
+      <c r="H40">
+        <v>111</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>110</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>n</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42">
+        <v>105</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43">
+        <v>116</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" cm="1">
+        <f t="array" ref="C44:C52">_xlfn.UNICODE(MID(C43,_xlfn.SEQUENCE(LEN(C43)),1))</f>
+        <v>8195</v>
+      </c>
+      <c r="H44">
+        <v>111</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>8195</v>
+      </c>
+      <c r="H45">
+        <v>114</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>8195</v>
+      </c>
+      <c r="H46">
+        <v>63</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>8195</v>
+      </c>
+      <c r="H47">
+        <v>63</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>8195</v>
+      </c>
+      <c r="H48">
+        <v>76</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G36" t="str">
-        <v>M</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G37" t="str">
-        <v>N</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G38" t="str">
-        <v>O</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G39" t="str">
-        <v>P</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G40" t="str">
-        <v>Q</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G41" t="str">
-        <v>R</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G42" t="str">
-        <v>S</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G43" t="str">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>8195</v>
+      </c>
+      <c r="H49">
+        <v>111</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>8195</v>
+      </c>
+      <c r="H50">
+        <v>119</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>w</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>8195</v>
+      </c>
+      <c r="H51">
+        <v>66</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>32</v>
+      </c>
+      <c r="H52">
+        <v>97</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>116</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" t="str">
+        <f>SUBSTITUTE(C42," "," ")</f>
+        <v xml:space="preserve">BatteryMonitor  LowBatteryThresholdBootup         1.0703125    1.13 </v>
+      </c>
+      <c r="H54">
+        <v>116</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55">
+        <v>101</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" t="str">
+        <f>TRIM(C55)</f>
+        <v>BatteryMonitor LowBatteryThresholdBootup 1.0703125 1.13</v>
+      </c>
+      <c r="H56">
+        <v>114</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>121</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>84</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
         <v>T</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G44" t="str">
-        <v>U</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G45" t="str">
-        <v>V</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G46" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G47" t="str">
-        <v>X</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G48" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G49" t="str">
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G50" t="str">
-        <v>a</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G51" t="str">
-        <v>b</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G52" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G53" t="str">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59">
+        <v>104</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>114</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(C59,_xlfn.UNICHAR(8195)," "),CHAR(160)," ")</f>
+        <v xml:space="preserve">BatteryMonitor  LowBatteryThresholdBootup            1.0703125        1.13 </v>
+      </c>
+      <c r="H61">
+        <v>101</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" cm="1">
+        <f t="array" ref="C62:C136">_xlfn.UNICODE(MID(C59,_xlfn.SEQUENCE(LEN(C59)),1))</f>
+        <v>66</v>
+      </c>
+      <c r="D62" t="str">
+        <f>TRIM(D61)</f>
+        <v>BatteryMonitor LowBatteryThresholdBootup 1.0703125 1.13</v>
+      </c>
+      <c r="H62">
+        <v>115</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63">
+        <v>104</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>116</v>
+      </c>
+      <c r="H64">
+        <v>111</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>116</v>
+      </c>
+      <c r="H65">
+        <v>108</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>l</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>101</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
         <v>d</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G54" t="str">
-        <v>e</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G55" t="str">
-        <v>f</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G56" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G57" t="str">
-        <v>h</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G58" t="str">
-        <v>i</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G59" t="str">
-        <v>j</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G60" t="str">
-        <v>k</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G61" t="str">
-        <v>l</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G62" t="str">
-        <v>m</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G63" t="str">
-        <v>n</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G64" t="str">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>114</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>121</v>
+      </c>
+      <c r="H68">
+        <v>111</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="0"/>
         <v>o</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G65" t="str">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>77</v>
+      </c>
+      <c r="H69">
+        <v>111</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="0"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>111</v>
+      </c>
+      <c r="H70">
+        <v>116</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>110</v>
+      </c>
+      <c r="H71">
+        <v>117</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="0"/>
+        <v>u</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>105</v>
+      </c>
+      <c r="H72">
+        <v>112</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="0"/>
         <v>p</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G66" t="str">
-        <v>q</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G67" t="str">
-        <v>r</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G68" t="str">
-        <v>s</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G69" t="str">
-        <v>t</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G70" t="str">
-        <v>u</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G71" t="str">
-        <v>v</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G72" t="str">
-        <v>w</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G73" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G74" t="str">
-        <v>y</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G75" t="str">
-        <v>z</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G76" t="str">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>116</v>
+      </c>
+      <c r="H73">
+        <v>63</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>111</v>
+      </c>
+      <c r="H74">
+        <v>63</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>114</v>
+      </c>
+      <c r="H75">
+        <v>63</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>8195</v>
+      </c>
+      <c r="H76">
+        <v>63</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>8195</v>
+      </c>
+      <c r="H77">
+        <v>63</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="H78">
+        <v>63</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>111</v>
+      </c>
+      <c r="H79">
+        <v>63</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>119</v>
+      </c>
+      <c r="H80">
+        <v>63</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>66</v>
+      </c>
+      <c r="H81">
+        <v>32</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>97</v>
+      </c>
+      <c r="H82">
+        <v>49</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>116</v>
+      </c>
+      <c r="H83">
+        <v>46</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>116</v>
+      </c>
+      <c r="H84">
+        <v>48</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G77" t="str">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>101</v>
+      </c>
+      <c r="H85">
+        <v>55</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>114</v>
+      </c>
+      <c r="H86">
+        <v>48</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>121</v>
+      </c>
+      <c r="H87">
+        <v>51</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>84</v>
+      </c>
+      <c r="H88">
+        <v>49</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G78" t="str">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>104</v>
+      </c>
+      <c r="H89">
+        <v>50</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G79" t="str">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>114</v>
+      </c>
+      <c r="H90">
+        <v>53</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>101</v>
+      </c>
+      <c r="H91">
+        <v>63</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>115</v>
+      </c>
+      <c r="H92">
+        <v>63</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>104</v>
+      </c>
+      <c r="H93">
+        <v>63</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>111</v>
+      </c>
+      <c r="H94">
+        <v>32</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>108</v>
+      </c>
+      <c r="H95">
+        <v>49</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>46</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>66</v>
+      </c>
+      <c r="H97">
+        <v>49</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" ref="I97:I99" si="1">CHAR(H97)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>111</v>
+      </c>
+      <c r="H98">
+        <v>51</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G80" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G81" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G82" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G83" t="str">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G84" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G85" t="str">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" t="e">
-        <v>#N/A</v>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>111</v>
+      </c>
+      <c r="H99">
+        <v>63</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>8195</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/CleanupExample.xlsx
+++ b/CleanupExample.xlsx
@@ -8,21 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE3B47-09F3-4F53-9036-E780D0C537A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931A7E9-7303-4D43-8BDC-7378CD45515B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Formats" sheetId="2" r:id="rId2"/>
-    <sheet name="Lists" sheetId="3" r:id="rId3"/>
+    <sheet name="AnotherWackAtIt" sheetId="4" r:id="rId2"/>
+    <sheet name="Formats" sheetId="2" r:id="rId3"/>
+    <sheet name="Lists" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_nA">_xlfn.ANCHORARRAY(AnotherWackAtIt!$C$31)</definedName>
+    <definedName name="_nActual">AnotherWackAtIt!$T$31:$T$31</definedName>
+    <definedName name="_nCaps">AnotherWackAtIt!$K$34:$K$59</definedName>
+    <definedName name="_nGood">AnotherWackAtIt!$R$33:$R$95</definedName>
+    <definedName name="_nLw">AnotherWackAtIt!$L$34:$L$59</definedName>
+    <definedName name="_nNu">AnotherWackAtIt!$N$34:$N$43</definedName>
+    <definedName name="_nPu">AnotherWackAtIt!$P$34:$P$35</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,6 +43,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -89,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>FROM:</t>
   </si>
@@ -263,6 +273,24 @@
   </si>
   <si>
     <t>What did I learn here? Beware of Unicode characters for things like em spaces.</t>
+  </si>
+  <si>
+    <t>How should I approach parsing something like this?</t>
+  </si>
+  <si>
+    <t>Caps</t>
+  </si>
+  <si>
+    <t>Lw</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Pu</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +423,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +488,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -508,7 +542,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -526,6 +560,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Calculation" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -1577,8 +1612,8 @@
   </sheetPr>
   <dimension ref="A1:BA136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1647,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>02-May-2024</v>
+        <v>05-May-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2944,6 +2979,1609 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37937A3D-90F8-4290-B85F-D4D4A3914864}">
+  <dimension ref="A3:BF96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15:C15">_xlfn.TEXTSPLIT(B3,_nGood,,TRUE,)</f>
+        <v>                              </v>
+      </c>
+      <c r="C15" t="str">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16:AP16">_xlfn.TEXTSPLIT(B4,_nGood)</f>
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="AB16" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC16" t="str">
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <v/>
+      </c>
+      <c r="AE16" t="str">
+        <v/>
+      </c>
+      <c r="AF16" t="str">
+        <v/>
+      </c>
+      <c r="AG16" t="str">
+        <v>      </v>
+      </c>
+      <c r="AH16" t="str">
+        <v/>
+      </c>
+      <c r="AI16" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ16" t="str">
+        <v/>
+      </c>
+      <c r="AK16" t="str">
+        <v/>
+      </c>
+      <c r="AL16" t="str">
+        <v/>
+      </c>
+      <c r="AM16" t="str">
+        <v/>
+      </c>
+      <c r="AN16" t="str">
+        <v/>
+      </c>
+      <c r="AO16" t="str">
+        <v/>
+      </c>
+      <c r="AP16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="str" cm="1">
+        <f t="array" ref="B17:BB17">_xlfn.TEXTSPLIT(B5,_nGood)</f>
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v>  </v>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <v/>
+      </c>
+      <c r="AF17" t="str">
+        <v/>
+      </c>
+      <c r="AG17" t="str">
+        <v/>
+      </c>
+      <c r="AH17" t="str">
+        <v/>
+      </c>
+      <c r="AI17" t="str">
+        <v/>
+      </c>
+      <c r="AJ17" t="str">
+        <v/>
+      </c>
+      <c r="AK17" t="str">
+        <v/>
+      </c>
+      <c r="AL17" t="str">
+        <v/>
+      </c>
+      <c r="AM17" t="str">
+        <v/>
+      </c>
+      <c r="AN17" t="str">
+        <v/>
+      </c>
+      <c r="AO17" t="str">
+        <v>            </v>
+      </c>
+      <c r="AP17" t="str">
+        <v/>
+      </c>
+      <c r="AQ17" t="str">
+        <v/>
+      </c>
+      <c r="AR17" t="str">
+        <v/>
+      </c>
+      <c r="AS17" t="str">
+        <v/>
+      </c>
+      <c r="AT17" t="str">
+        <v/>
+      </c>
+      <c r="AU17" t="str">
+        <v/>
+      </c>
+      <c r="AV17" t="str">
+        <v/>
+      </c>
+      <c r="AW17" t="str">
+        <v/>
+      </c>
+      <c r="AX17" t="str">
+        <v xml:space="preserve">        </v>
+      </c>
+      <c r="AY17" t="str">
+        <v/>
+      </c>
+      <c r="AZ17" t="str">
+        <v/>
+      </c>
+      <c r="BA17" t="str">
+        <v/>
+      </c>
+      <c r="BB17" t="str">
+        <v> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="str" cm="1">
+        <f t="array" ref="B18:AW18">_xlfn.TEXTSPLIT(B6,_nGood)</f>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v>  </v>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <v/>
+      </c>
+      <c r="AE18" t="str">
+        <v/>
+      </c>
+      <c r="AF18" t="str">
+        <v/>
+      </c>
+      <c r="AG18" t="str">
+        <v/>
+      </c>
+      <c r="AH18" t="str">
+        <v/>
+      </c>
+      <c r="AI18" t="str">
+        <v xml:space="preserve">             </v>
+      </c>
+      <c r="AJ18" t="str">
+        <v/>
+      </c>
+      <c r="AK18" t="str">
+        <v/>
+      </c>
+      <c r="AL18" t="str">
+        <v/>
+      </c>
+      <c r="AM18" t="str">
+        <v/>
+      </c>
+      <c r="AN18" t="str">
+        <v/>
+      </c>
+      <c r="AO18" t="str">
+        <v/>
+      </c>
+      <c r="AP18" t="str">
+        <v/>
+      </c>
+      <c r="AQ18" t="str">
+        <v/>
+      </c>
+      <c r="AR18" t="str">
+        <v/>
+      </c>
+      <c r="AS18" t="str">
+        <v>    </v>
+      </c>
+      <c r="AT18" t="str">
+        <v/>
+      </c>
+      <c r="AU18" t="str">
+        <v/>
+      </c>
+      <c r="AV18" t="str">
+        <v/>
+      </c>
+      <c r="AW18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19:BF19">_xlfn.TEXTSPLIT(B7,_nGood)</f>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v>  </v>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <v/>
+      </c>
+      <c r="AE19" t="str">
+        <v/>
+      </c>
+      <c r="AF19" t="str">
+        <v/>
+      </c>
+      <c r="AG19" t="str">
+        <v/>
+      </c>
+      <c r="AH19" t="str">
+        <v/>
+      </c>
+      <c r="AI19" t="str">
+        <v/>
+      </c>
+      <c r="AJ19" t="str">
+        <v/>
+      </c>
+      <c r="AK19" t="str">
+        <v/>
+      </c>
+      <c r="AL19" t="str">
+        <v/>
+      </c>
+      <c r="AM19" t="str">
+        <v/>
+      </c>
+      <c r="AN19" t="str">
+        <v/>
+      </c>
+      <c r="AO19" t="str">
+        <v/>
+      </c>
+      <c r="AP19" t="str">
+        <v/>
+      </c>
+      <c r="AQ19" t="str">
+        <v/>
+      </c>
+      <c r="AR19" t="str">
+        <v/>
+      </c>
+      <c r="AS19" t="str">
+        <v/>
+      </c>
+      <c r="AT19" t="str">
+        <v/>
+      </c>
+      <c r="AU19" t="str">
+        <v>      </v>
+      </c>
+      <c r="AV19" t="str">
+        <v/>
+      </c>
+      <c r="AW19" t="str">
+        <v/>
+      </c>
+      <c r="AX19" t="str">
+        <v/>
+      </c>
+      <c r="AY19" t="str">
+        <v/>
+      </c>
+      <c r="AZ19" t="str">
+        <v/>
+      </c>
+      <c r="BA19" t="str">
+        <v/>
+      </c>
+      <c r="BB19" t="str">
+        <v>       </v>
+      </c>
+      <c r="BC19" t="str">
+        <v/>
+      </c>
+      <c r="BD19" t="str">
+        <v/>
+      </c>
+      <c r="BE19" t="str">
+        <v/>
+      </c>
+      <c r="BF19" t="str">
+        <v> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="str" cm="1">
+        <f t="array" ref="B20:AW20">_xlfn.TEXTSPLIT(B8,_nGood)</f>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v>  </v>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <v/>
+      </c>
+      <c r="AC20" t="str">
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <v/>
+      </c>
+      <c r="AE20" t="str">
+        <v/>
+      </c>
+      <c r="AF20" t="str">
+        <v/>
+      </c>
+      <c r="AG20" t="str">
+        <v/>
+      </c>
+      <c r="AH20" t="str">
+        <v/>
+      </c>
+      <c r="AI20" t="str">
+        <v/>
+      </c>
+      <c r="AJ20" t="str">
+        <v/>
+      </c>
+      <c r="AK20" t="str">
+        <v/>
+      </c>
+      <c r="AL20" t="str">
+        <v/>
+      </c>
+      <c r="AM20" t="str">
+        <v/>
+      </c>
+      <c r="AN20" t="str">
+        <v/>
+      </c>
+      <c r="AO20" t="str">
+        <v/>
+      </c>
+      <c r="AP20" t="str">
+        <v/>
+      </c>
+      <c r="AQ20" t="str">
+        <v/>
+      </c>
+      <c r="AR20" t="str">
+        <v/>
+      </c>
+      <c r="AS20" t="str">
+        <v xml:space="preserve">         </v>
+      </c>
+      <c r="AT20" t="str">
+        <v/>
+      </c>
+      <c r="AU20" t="str">
+        <v>        </v>
+      </c>
+      <c r="AV20" t="str">
+        <v/>
+      </c>
+      <c r="AW20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="str" cm="1">
+        <f t="array" ref="B24:C24">_xlfn.TEXTSPLIT(B3,_xlfn.UNICHAR(_nA),,TRUE)</f>
+        <v>New</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <v>OLD</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="13" t="str" cm="1">
+        <f t="array" ref="B25:D25">_xlfn.TEXTSPLIT(B4,_xlfn.UNICHAR(_nA),,TRUE)</f>
+        <v>LowBatteryShutdownTimeout</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <v xml:space="preserve">   4 hours</v>
+      </c>
+      <c r="D25" s="13" t="str">
+        <v>30 minutes</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="13" t="str" cm="1">
+        <f t="array" ref="B26:E26">_xlfn.TEXTSPLIT(B5,_xlfn.UNICHAR(_nA),,TRUE)</f>
+        <v>BatteryMonitor</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <v>LowBatteryThresholdBootup</v>
+      </c>
+      <c r="D26" s="13" t="str">
+        <v xml:space="preserve">    1.0703125</v>
+      </c>
+      <c r="E26" s="13" t="str">
+        <v xml:space="preserve">     1.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="13" t="str" cm="1">
+        <f t="array" ref="B27:E27">_xlfn.TEXTSPLIT(B6,_xlfn.UNICHAR(_nA),,TRUE)</f>
+        <v>BatteryMonitor</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <v>LowBatteryThreshold</v>
+      </c>
+      <c r="D27" s="13" t="str">
+        <v xml:space="preserve"> 1.05859375</v>
+      </c>
+      <c r="E27" s="13" t="str">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="13" t="str" cm="1">
+        <f t="array" ref="B28:E28">_xlfn.TEXTSPLIT(B7,_xlfn.UNICHAR(_nA),,TRUE)</f>
+        <v>BatteryMonitor</v>
+      </c>
+      <c r="C28" s="13" t="str">
+        <v>VeryLowBatteryShutdownThreshold</v>
+      </c>
+      <c r="D28" s="13" t="str">
+        <v>1.03125</v>
+      </c>
+      <c r="E28" s="13" t="str">
+        <v xml:space="preserve">  1.10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" s="13" t="str" cm="1">
+        <f t="array" ref="B29:E29">_xlfn.TEXTSPLIT(B8,_xlfn.UNICHAR(_nA),,TRUE)</f>
+        <v>BatteryMonitor</v>
+      </c>
+      <c r="C29" s="13" t="str">
+        <v>VeryLowBatteryShutdownTimeout</v>
+      </c>
+      <c r="D29" s="13" t="str">
+        <v xml:space="preserve">   10</v>
+      </c>
+      <c r="E29" s="13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="B31" t="str" cm="1">
+        <f t="array" ref="B31">_xlfn.LET(_xlpm.x,_xlfn.UNIQUE(_xlfn.TOCOL(B15:B20)),_xlfn._xlws.FILTER(_xlpm.x,LEN(_xlpm.x)&gt;0))</f>
+        <v>                              </v>
+      </c>
+      <c r="C31" s="15" cm="1">
+        <f t="array" ref="C31">_xlfn.UNICODE(_xlfn.ANCHORARRAY(B31))</f>
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s">
+        <v>62</v>
+      </c>
+      <c r="R33" t="str" cm="1">
+        <f t="array" ref="R33:R96">_xlfn.VSTACK(_nCaps,_nLw,_nNu,_nPu)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J34" cm="1">
+        <f t="array" ref="J34:J59">_xlfn.SEQUENCE(26,1,CODE("A"))</f>
+        <v>65</v>
+      </c>
+      <c r="K34" t="str">
+        <f>CHAR(J34)</f>
+        <v>A</v>
+      </c>
+      <c r="L34" t="str" cm="1">
+        <f t="array" ref="L34:L59">CHAR(_xlfn.SEQUENCE(26,1,CODE("a")))</f>
+        <v>a</v>
+      </c>
+      <c r="N34" t="str" cm="1">
+        <f t="array" ref="N34:N43">CHAR(_xlfn.SEQUENCE(10,1,CODE("0")))</f>
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>63</v>
+      </c>
+      <c r="R34" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="35" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>66</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" ref="K35:K59" si="0">CHAR(J35)</f>
+        <v>B</v>
+      </c>
+      <c r="L35" t="str">
+        <v>b</v>
+      </c>
+      <c r="N35" t="str">
+        <v>1</v>
+      </c>
+      <c r="P35" t="str">
+        <f>CHAR(32)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R35" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="36" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>67</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="L36" t="str">
+        <v>c</v>
+      </c>
+      <c r="N36" t="str">
+        <v>2</v>
+      </c>
+      <c r="R36" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>68</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="L37" t="str">
+        <v>d</v>
+      </c>
+      <c r="N37" t="str">
+        <v>3</v>
+      </c>
+      <c r="R37" t="str">
+        <v>E</v>
+      </c>
+    </row>
+    <row r="38" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>69</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="L38" t="str">
+        <v>e</v>
+      </c>
+      <c r="N38" t="str">
+        <v>4</v>
+      </c>
+      <c r="R38" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="39" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>70</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L39" t="str">
+        <v>f</v>
+      </c>
+      <c r="N39" t="str">
+        <v>5</v>
+      </c>
+      <c r="R39" t="str">
+        <v>G</v>
+      </c>
+    </row>
+    <row r="40" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>71</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="L40" t="str">
+        <v>g</v>
+      </c>
+      <c r="N40" t="str">
+        <v>6</v>
+      </c>
+      <c r="R40" t="str">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="41" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>72</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="L41" t="str">
+        <v>h</v>
+      </c>
+      <c r="N41" t="str">
+        <v>7</v>
+      </c>
+      <c r="R41" t="str">
+        <v>I</v>
+      </c>
+    </row>
+    <row r="42" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>73</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="L42" t="str">
+        <v>i</v>
+      </c>
+      <c r="N42" t="str">
+        <v>8</v>
+      </c>
+      <c r="R42" t="str">
+        <v>J</v>
+      </c>
+    </row>
+    <row r="43" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>74</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="L43" t="str">
+        <v>j</v>
+      </c>
+      <c r="N43" t="str">
+        <v>9</v>
+      </c>
+      <c r="R43" t="str">
+        <v>K</v>
+      </c>
+    </row>
+    <row r="44" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>75</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="L44" t="str">
+        <v>k</v>
+      </c>
+      <c r="R44" t="str">
+        <v>L</v>
+      </c>
+    </row>
+    <row r="45" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>76</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="L45" t="str">
+        <v>l</v>
+      </c>
+      <c r="R45" t="str">
+        <v>M</v>
+      </c>
+    </row>
+    <row r="46" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>77</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="L46" t="str">
+        <v>m</v>
+      </c>
+      <c r="R46" t="str">
+        <v>N</v>
+      </c>
+    </row>
+    <row r="47" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>78</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="L47" t="str">
+        <v>n</v>
+      </c>
+      <c r="R47" t="str">
+        <v>O</v>
+      </c>
+    </row>
+    <row r="48" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>79</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="L48" t="str">
+        <v>o</v>
+      </c>
+      <c r="R48" t="str">
+        <v>P</v>
+      </c>
+    </row>
+    <row r="49" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>80</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="L49" t="str">
+        <v>p</v>
+      </c>
+      <c r="R49" t="str">
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="50" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>81</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>Q</v>
+      </c>
+      <c r="L50" t="str">
+        <v>q</v>
+      </c>
+      <c r="R50" t="str">
+        <v>R</v>
+      </c>
+    </row>
+    <row r="51" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>82</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="L51" t="str">
+        <v>r</v>
+      </c>
+      <c r="R51" t="str">
+        <v>S</v>
+      </c>
+    </row>
+    <row r="52" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>83</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="L52" t="str">
+        <v>s</v>
+      </c>
+      <c r="R52" t="str">
+        <v>T</v>
+      </c>
+    </row>
+    <row r="53" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>84</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L53" t="str">
+        <v>t</v>
+      </c>
+      <c r="R53" t="str">
+        <v>U</v>
+      </c>
+    </row>
+    <row r="54" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>85</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>U</v>
+      </c>
+      <c r="L54" t="str">
+        <v>u</v>
+      </c>
+      <c r="R54" t="str">
+        <v>V</v>
+      </c>
+    </row>
+    <row r="55" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>86</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="L55" t="str">
+        <v>v</v>
+      </c>
+      <c r="R55" t="str">
+        <v>W</v>
+      </c>
+    </row>
+    <row r="56" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>87</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="L56" t="str">
+        <v>w</v>
+      </c>
+      <c r="R56" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="57" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>88</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L57" t="str">
+        <v>x</v>
+      </c>
+      <c r="R57" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="58" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>89</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="L58" t="str">
+        <v>y</v>
+      </c>
+      <c r="R58" t="str">
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="59" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>90</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>Z</v>
+      </c>
+      <c r="L59" t="str">
+        <v>z</v>
+      </c>
+      <c r="R59" t="str">
+        <v>a</v>
+      </c>
+    </row>
+    <row r="60" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="R60" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="61" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="R61" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="62" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="R62" t="str">
+        <v>d</v>
+      </c>
+    </row>
+    <row r="63" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="R63" t="str">
+        <v>e</v>
+      </c>
+    </row>
+    <row r="64" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="R64" t="str">
+        <v>f</v>
+      </c>
+    </row>
+    <row r="65" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R65" t="str">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="66" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R66" t="str">
+        <v>h</v>
+      </c>
+    </row>
+    <row r="67" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R67" t="str">
+        <v>i</v>
+      </c>
+    </row>
+    <row r="68" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R68" t="str">
+        <v>j</v>
+      </c>
+    </row>
+    <row r="69" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R69" t="str">
+        <v>k</v>
+      </c>
+    </row>
+    <row r="70" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R70" t="str">
+        <v>l</v>
+      </c>
+    </row>
+    <row r="71" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R71" t="str">
+        <v>m</v>
+      </c>
+    </row>
+    <row r="72" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R72" t="str">
+        <v>n</v>
+      </c>
+    </row>
+    <row r="73" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R73" t="str">
+        <v>o</v>
+      </c>
+    </row>
+    <row r="74" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R74" t="str">
+        <v>p</v>
+      </c>
+    </row>
+    <row r="75" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R75" t="str">
+        <v>q</v>
+      </c>
+    </row>
+    <row r="76" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R76" t="str">
+        <v>r</v>
+      </c>
+    </row>
+    <row r="77" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R77" t="str">
+        <v>s</v>
+      </c>
+    </row>
+    <row r="78" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R78" t="str">
+        <v>t</v>
+      </c>
+    </row>
+    <row r="79" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R79" t="str">
+        <v>u</v>
+      </c>
+    </row>
+    <row r="80" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R80" t="str">
+        <v>v</v>
+      </c>
+    </row>
+    <row r="81" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R81" t="str">
+        <v>w</v>
+      </c>
+    </row>
+    <row r="82" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R82" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="83" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R83" t="str">
+        <v>y</v>
+      </c>
+    </row>
+    <row r="84" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R84" t="str">
+        <v>z</v>
+      </c>
+    </row>
+    <row r="85" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R85" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R86" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R87" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R88" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R89" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R91" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R92" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R93" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R94" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R95" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="96" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R96" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E8867-A2D1-43A4-9ACC-7AB2760F7CD8}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -2988,7 +4626,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>02-May-2024</v>
+        <v>05-May-2024</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3279,7 +4917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E13436D-CE0C-4639-B951-C1B98556791F}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -3316,7 +4954,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>02-May-2024</v>
+        <v>05-May-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/CleanupExample.xlsx
+++ b/CleanupExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931A7E9-7303-4D43-8BDC-7378CD45515B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628AF060-B14A-43E9-B751-404B6B75E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1612,7 +1612,7 @@
   </sheetPr>
   <dimension ref="A1:BA136"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:F25"/>
     </sheetView>
   </sheetViews>
@@ -2982,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37937A3D-90F8-4290-B85F-D4D4A3914864}">
   <dimension ref="A3:BF96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
